--- a/ezclimate/report.xlsx
+++ b/ezclimate/report.xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,10 +624,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>-9.3445</v>
+        <v>-9.2120999999999995</v>
       </c>
       <c r="B14" s="1">
-        <v>0.77656000000000003</v>
+        <v>0.80732999999999999</v>
       </c>
       <c r="C14" s="1">
         <v>75</v>

--- a/ezclimate/report.xlsx
+++ b/ezclimate/report.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="718" sheetId="1" r:id="rId1"/>
+    <sheet name="719" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
   <si>
     <t>Final_norm_of_gradient</t>
   </si>
@@ -93,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +124,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,11 +162,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,6 +192,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +703,9 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>18</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
@@ -765,4 +828,358 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>-8.3815000000000008</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="C4" s="9">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8.3489999999999997E-4</v>
+      </c>
+      <c r="B9" s="9">
+        <v>227</v>
+      </c>
+      <c r="C9" s="9">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>582</v>
+      </c>
+      <c r="B11" s="9">
+        <v>-9.4937000000000005</v>
+      </c>
+      <c r="C11" s="9">
+        <v>-1.41E-2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>-8.3815000000000008</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="C17" s="9">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>0.37509999999999999</v>
+      </c>
+      <c r="B22" s="9">
+        <v>200</v>
+      </c>
+      <c r="C22" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>200</v>
+      </c>
+      <c r="B24" s="9">
+        <v>-9.3615999999999993</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>-7.9943</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0.1416</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.27710000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>20</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>